--- a/REF_SBS_2/Data/Config.xlsx
+++ b/REF_SBS_2/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documents\UiPath\REF_SBS_2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Repositorio\Sesion1\UiPath\REF_SBS_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287927B1-55B6-44E4-89F2-3B8889BB1279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2006832-25BE-4435-8D8F-3F5A445DA2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -242,10 +242,10 @@
     <t>RutaPlantillaReporte</t>
   </si>
   <si>
-    <t>TipoCambioQueue2</t>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+  </si>
+  <si>
+    <t>TipoCambioQueue3</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -781,10 +781,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1782,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
